--- a/njejdekj.xlsx
+++ b/njejdekj.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enlace 3\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enlace 3\Desktop\pagina_web\pagina_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EA85B0-D026-4CD0-8DBE-BD44E76530AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86C78BC-37C2-4676-A13A-8444301F540A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>generos</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>Tina Turner</t>
+  </si>
+  <si>
+    <t>16 de agosto de 1977 (Memphis, Tennessee)</t>
+  </si>
+  <si>
+    <t>8 de Enero de 1935 (Tupelo, Misisipi)</t>
+  </si>
+  <si>
+    <t>"He'll Have to Go"</t>
+  </si>
+  <si>
+    <t>"That's All Right (Mama)"(1954)</t>
   </si>
 </sst>
 </file>
@@ -533,18 +545,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -578,6 +590,18 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -853,6 +877,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A21:A23"/>
@@ -861,12 +891,6 @@
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
